--- a/cp2/bila_fb-02_leta_fb-02_cp2/indexes.xlsx
+++ b/cp2/bila_fb-02_leta_fb-02_cp2/indexes.xlsx
@@ -532,94 +532,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03477814301104243</v>
+        <v>0.03540318621049883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03451323546827856</v>
+        <v>0.03365762825225786</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0347754823374084</v>
+        <v>0.03537512674612907</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03444170273547244</v>
+        <v>0.0336007446393102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03470247067355959</v>
+        <v>0.03535338271217246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03562617889183141</v>
+        <v>0.04321232340902984</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03489706512515781</v>
+        <v>0.03536611576744816</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03443953292016254</v>
+        <v>0.03361816528900438</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03472531470615879</v>
+        <v>0.03544120396285531</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03462512699451158</v>
+        <v>0.03357008893142104</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03471531326469598</v>
+        <v>0.03527913582243025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03451193463037908</v>
+        <v>0.03374287205321901</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03923252547345646</v>
+        <v>0.05667060702875399</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03431841147039673</v>
+        <v>0.03355059522920367</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03496245241544875</v>
+        <v>0.03532923505501202</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03470715601733915</v>
+        <v>0.03355315707434674</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03455187400713683</v>
+        <v>0.03525081328402972</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03433197543693756</v>
+        <v>0.03342913541516717</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03475990849749518</v>
+        <v>0.03532922045621455</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0354439988324447</v>
+        <v>0.04328227607242949</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03479865760929885</v>
+        <v>0.03516590372066516</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03453435016371733</v>
+        <v>0.03377602673928392</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03478603519076744</v>
+        <v>0.03536201414470406</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03451835834027318</v>
+        <v>0.03359764522859079</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03466893894891149</v>
+        <v>0.03550495354771452</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0345476577751164</v>
+        <v>0.03364644814402105</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03903256926651007</v>
+        <v>0.05646761560900226</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03476567034297641</v>
+        <v>0.0336932257727597</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.03447463694599059</v>
+        <v>0.03529422809190425</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03442166275143523</v>
+        <v>0.0336697129961578</v>
       </c>
     </row>
   </sheetData>

--- a/cp2/bila_fb-02_leta_fb-02_cp2/indexes.xlsx
+++ b/cp2/bila_fb-02_leta_fb-02_cp2/indexes.xlsx
@@ -1,37 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hohlokid\дз\криптографія\crypto-22-23\cp2\bila_fb-02_leta_fb-02_cp2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8A2727-A148-4C35-A1F9-7120CADC790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +74,1263 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="uk-UA"/>
+              <a:t>Індекс</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="uk-UA" baseline="0"/>
+              <a:t> відповідності для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>r</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AFF1-4815-B6E8-2FE075C66DB7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AFF1-4815-B6E8-2FE075C66DB7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3.540318621049883E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3657628252257862E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5375126746129068E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3600744639310197E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5353382712172463E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3212323409029842E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5366115767448157E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3618165289004381E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5441203962855307E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3570088931421042E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5279135822430252E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3742872053219013E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.667060702875399E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3550595229203672E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5329235055012023E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3553157074346737E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5250813284029722E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.342913541516717E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5329220456214547E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3282276072429487E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5165903720665158E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3776026739283919E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5362014144704058E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3597645228590788E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5504953547714518E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3646448144021047E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6467615609002257E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3693225772759697E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5294228091904252E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.36697129961578E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFF1-4815-B6E8-2FE075C66DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1073990368"/>
+        <c:axId val="1116313712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1073990368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>r</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116313712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1116313712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="uk-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073990368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>511174</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Діаграма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DD8940-EB03-202A-DA23-676FCFF1221C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,209 +1617,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.03540318621049883</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03365762825225786</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03537512674612907</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0336007446393102</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03535338271217246</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.04321232340902984</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03536611576744816</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03361816528900438</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.03544120396285531</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.03357008893142104</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.03527913582243025</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.03374287205321901</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.05667060702875399</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.03355059522920367</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03532923505501202</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03355315707434674</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.03525081328402972</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03342913541516717</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03532922045621455</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.04328227607242949</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.03516590372066516</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.03377602673928392</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.03536201414470406</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.03359764522859079</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.03550495354771452</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.03364644814402105</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.05646761560900226</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0336932257727597</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.03529422809190425</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.0336697129961578</v>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.540318621049883E-2</v>
+      </c>
+      <c r="C2">
+        <v>3.3657628252257862E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.5375126746129068E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.3600744639310197E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.5353382712172463E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.3212323409029842E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.5366115767448157E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.3618165289004381E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.5441203962855307E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.3570088931421042E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.5279135822430252E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.3742872053219013E-2</v>
+      </c>
+      <c r="N2">
+        <v>5.667060702875399E-2</v>
+      </c>
+      <c r="O2">
+        <v>3.3550595229203672E-2</v>
+      </c>
+      <c r="P2">
+        <v>3.5329235055012023E-2</v>
+      </c>
+      <c r="Q2">
+        <v>3.3553157074346737E-2</v>
+      </c>
+      <c r="R2">
+        <v>3.5250813284029722E-2</v>
+      </c>
+      <c r="S2">
+        <v>3.342913541516717E-2</v>
+      </c>
+      <c r="T2">
+        <v>3.5329220456214547E-2</v>
+      </c>
+      <c r="U2">
+        <v>4.3282276072429487E-2</v>
+      </c>
+      <c r="V2">
+        <v>3.5165903720665158E-2</v>
+      </c>
+      <c r="W2">
+        <v>3.3776026739283919E-2</v>
+      </c>
+      <c r="X2">
+        <v>3.5362014144704058E-2</v>
+      </c>
+      <c r="Y2">
+        <v>3.3597645228590788E-2</v>
+      </c>
+      <c r="Z2">
+        <v>3.5504953547714518E-2</v>
+      </c>
+      <c r="AA2">
+        <v>3.3646448144021047E-2</v>
+      </c>
+      <c r="AB2">
+        <v>5.6467615609002257E-2</v>
+      </c>
+      <c r="AC2">
+        <v>3.3693225772759697E-2</v>
+      </c>
+      <c r="AD2">
+        <v>3.5294228091904252E-2</v>
+      </c>
+      <c r="AE2">
+        <v>3.36697129961578E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>